--- a/src/test/resources/excel/w2a.testdata.xlsx
+++ b/src/test/resources/excel/w2a.testdata.xlsx
@@ -2,18 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya\eclipse-workspace\Selenium Projects\org.w2a.DataDrivenFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494EA1E0-1F56-4461-92BF-8B3FFA12B555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D929C4-E958-4D15-972E-677B0C26F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19005" windowHeight="10095" xr2:uid="{4483CA7B-A24F-404B-B302-960A6F9DCB78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4483CA7B-A24F-404B-B302-960A6F9DCB78}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
+    <sheet name="TestSuite" sheetId="3" r:id="rId2"/>
+    <sheet name="OpenAccountTest" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>FirstName</t>
   </si>
@@ -58,6 +60,66 @@
   </si>
   <si>
     <t>Customer added successfully</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Meena Prakash</t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>Ashwanth</t>
+  </si>
+  <si>
+    <t>Aroon</t>
+  </si>
+  <si>
+    <t>Sri</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>Sai</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>A234567</t>
+  </si>
+  <si>
+    <t>A678910</t>
+  </si>
+  <si>
+    <t>A123456</t>
+  </si>
+  <si>
+    <t>RunMode</t>
+  </si>
+  <si>
+    <t>BankManagerLoginTest</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>AddCustomerTest</t>
+  </si>
+  <si>
+    <t>OpenAccountTest</t>
+  </si>
+  <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -73,15 +135,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,12 +163,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +503,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815A3D4A-16BE-4D24-AC25-D3A208B8E1DC}">
-  <dimension ref="A1:D2"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,21 +518,24 @@
     <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -449,6 +547,148 @@
       </c>
       <c r="D2" t="s">
         <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B76648-7855-4CAC-B37E-245C66028BE4}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63214FB7-2F7F-414C-8535-1F941384CF70}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
